--- a/data/algae-traits_literature-search.xlsx
+++ b/data/algae-traits_literature-search.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/An/github/algae-traits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B61DE-5BE1-7A42-A708-050DBE833422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB3A6B-F67B-8640-8BB4-48BE9B352031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{89E3F277-A7AF-8A44-AE7F-6D4A2DA81664}"/>
+    <workbookView xWindow="32560" yWindow="-1460" windowWidth="34640" windowHeight="20220" xr2:uid="{89E3F277-A7AF-8A44-AE7F-6D4A2DA81664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BI$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="409">
   <si>
     <t>sp_code</t>
   </si>
@@ -1112,9 +1112,6 @@
     <t>20 - 30 (40) cm</t>
   </si>
   <si>
-    <t>annual or perennial</t>
-  </si>
-  <si>
     <t>2 - 4 cm</t>
   </si>
   <si>
@@ -1185,6 +1182,111 @@
   </si>
   <si>
     <t>annual blades, perennial holdfast</t>
+  </si>
+  <si>
+    <t>description from Neoptilota and Ptilota genus descriptions</t>
+  </si>
+  <si>
+    <t>30 + cm</t>
+  </si>
+  <si>
+    <t>from Gelidium genus description</t>
+  </si>
+  <si>
+    <t>from Gracilaria genus description</t>
+  </si>
+  <si>
+    <t>from Gymnogongrus genus descripition</t>
+  </si>
+  <si>
+    <t>5 - 15 (25) cm</t>
+  </si>
+  <si>
+    <t>from Rhodoglossum genus description</t>
+  </si>
+  <si>
+    <t>5 m</t>
+  </si>
+  <si>
+    <t>4 - 7 cm</t>
+  </si>
+  <si>
+    <t>late summer</t>
+  </si>
+  <si>
+    <t>branched haptera</t>
+  </si>
+  <si>
+    <t>saxicolous, occasionally epizoic</t>
+  </si>
+  <si>
+    <t>horizontal_spread_yn</t>
+  </si>
+  <si>
+    <t>horizontal_spread_yn_source</t>
+  </si>
+  <si>
+    <t>Breda and Foster 1985</t>
+  </si>
+  <si>
+    <t>perennial (corymbifera)</t>
+  </si>
+  <si>
+    <t>"tolerates the extreme, exposed oceanic conditions prevalent at offshore rocks"</t>
+  </si>
+  <si>
+    <t>Miller 1987</t>
+  </si>
+  <si>
+    <t>Breda and Foster 1985, Miller 1987</t>
+  </si>
+  <si>
+    <t>saxicolous or epiphytic</t>
+  </si>
+  <si>
+    <t>upper to midtidal</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>0.5 - 2.5 mm</t>
+  </si>
+  <si>
+    <t>alternate-distichously</t>
+  </si>
+  <si>
+    <t>Perrone and Cecere 1994</t>
+  </si>
+  <si>
+    <t>annual (spring-summer ephemeral)</t>
+  </si>
+  <si>
+    <t>Vandermeulen and Dewreede 1986</t>
+  </si>
+  <si>
+    <t>Breda and Foster 1985, Schiel 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annual </t>
+  </si>
+  <si>
+    <t>Edwards 1998</t>
+  </si>
+  <si>
+    <t>recruiting_season</t>
+  </si>
+  <si>
+    <t>recruiting_season_source</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>Schiel 1985</t>
+  </si>
+  <si>
+    <t>spring</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,6 +1350,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1261,13 +1369,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1582,13 +1691,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}">
-  <dimension ref="A1:BE60"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,14 +1720,16 @@
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" customWidth="1"/>
+    <col min="32" max="32" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1785,7 @@
         <v>306</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>16</v>
@@ -1691,7 +1803,7 @@
         <v>285</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>281</v>
@@ -1709,88 +1821,100 @@
         <v>20</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1842,23 +1966,24 @@
       <c r="X2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AK2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AL2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1913,29 +2038,30 @@
       <c r="X3" t="s">
         <v>321</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AE3" s="6"/>
+      <c r="AK3" t="s">
         <v>322</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>53</v>
-      </c>
       <c r="AL3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>317</v>
       </c>
       <c r="AT3" t="s">
         <v>317</v>
       </c>
-      <c r="AU3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1984,23 +2110,24 @@
       <c r="W4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AE4" s="6"/>
+      <c r="AK4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AL4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2040,11 +2167,12 @@
       <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="6"/>
+      <c r="AL5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -2096,26 +2224,27 @@
       <c r="X6" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AE6" s="6"/>
+      <c r="AK6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AL6" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2167,30 +2296,31 @@
       <c r="X7" t="s">
         <v>326</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="AE7" s="6"/>
+      <c r="AL7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
+      <c r="AQ7" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
-      <c r="AT7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV7" s="3"/>
-    </row>
-    <row r="8" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX7" s="3"/>
+    </row>
+    <row r="8" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -2248,16 +2378,14 @@
       <c r="AA8" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AE8" s="6"/>
+      <c r="AK8" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AL8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN8" s="2" t="s">
         <v>317</v>
       </c>
       <c r="AO8" s="2" t="s">
@@ -2266,17 +2394,20 @@
       <c r="AQ8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AR8" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="AS8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AX8" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AT8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2316,11 +2447,12 @@
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="6"/>
+      <c r="AL9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -2378,29 +2510,30 @@
       <c r="AC10" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE10" s="6"/>
       <c r="AL10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>284</v>
       </c>
       <c r="AT10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AU10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AW10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2443,6 +2576,9 @@
       <c r="O11" t="s">
         <v>323</v>
       </c>
+      <c r="P11" t="s">
+        <v>389</v>
+      </c>
       <c r="R11" t="s">
         <v>334</v>
       </c>
@@ -2452,27 +2588,36 @@
       <c r="AC11" t="s">
         <v>298</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AE11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK11" t="s">
         <v>333</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AL11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN11" s="3" t="s">
         <v>317</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP11" s="3"/>
-      <c r="AR11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR11" s="3"/>
+      <c r="AT11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2530,41 +2675,42 @@
       <c r="AC12" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AE12" s="6"/>
+      <c r="AI12" s="2">
         <v>17.3</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AJ12" s="2">
         <v>1.1020000000000001</v>
       </c>
-      <c r="AJ12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="AL12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AV12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AU12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BD12" s="2" t="s">
+      <c r="BH12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BE12" s="2" t="s">
+      <c r="BI12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2619,26 +2765,27 @@
       <c r="AC13" t="s">
         <v>298</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>317</v>
-      </c>
+      <c r="AE13" s="6"/>
       <c r="AL13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
@@ -2693,26 +2840,27 @@
       <c r="AC14" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AJ14" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE14" s="6"/>
       <c r="AL14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AV14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2770,23 +2918,24 @@
       <c r="AC15" t="s">
         <v>298</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE15" s="6"/>
       <c r="AL15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -2829,17 +2978,24 @@
       <c r="O16" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="P16" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="W16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE16" s="6"/>
       <c r="AL16" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -2882,17 +3038,18 @@
       <c r="W17" t="s">
         <v>280</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AE17" s="6"/>
+      <c r="AK17" t="s">
         <v>340</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -2953,17 +3110,18 @@
       <c r="AC18" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK18" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AJ18" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AL18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="AN18" s="2" t="s">
         <v>317</v>
@@ -2971,17 +3129,29 @@
       <c r="AO18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AT18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ18" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -3037,37 +3207,38 @@
         <v>282</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AE19" s="6"/>
+      <c r="AK19" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AJ19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AL19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AT19" s="3" t="s">
+      <c r="AV19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AW19" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX19" s="3" t="s">
+      <c r="AY19" s="3" t="s">
         <v>284</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BB19" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
@@ -3111,58 +3282,65 @@
         <v>323</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>342</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>280</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AJ20" s="2" t="s">
-        <v>53</v>
+      <c r="AE20" s="6"/>
+      <c r="AG20" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN20" s="2" t="s">
         <v>317</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
         <v>317</v>
       </c>
       <c r="AV20" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AW20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX20" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ20" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AX20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -3206,11 +3384,11 @@
         <v>323</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S21" s="3"/>
       <c r="U21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>280</v>
@@ -3219,31 +3397,32 @@
         <v>297</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>53</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AE21" s="6"/>
       <c r="AL21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>317</v>
       </c>
       <c r="AT21" t="s">
         <v>317</v>
       </c>
-      <c r="AU21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>148</v>
       </c>
@@ -3287,37 +3466,38 @@
         <v>323</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>280</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE22" s="6"/>
       <c r="AL22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ22" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB22" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3361,7 +3541,7 @@
         <v>323</v>
       </c>
       <c r="S23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>280</v>
@@ -3372,26 +3552,27 @@
       <c r="AC23" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE23" s="6"/>
       <c r="AL23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>154</v>
       </c>
@@ -3431,11 +3612,12 @@
       <c r="M24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AE24" s="6"/>
+      <c r="AL24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -3485,34 +3667,29 @@
         <v>280</v>
       </c>
       <c r="R25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>280</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE25" t="s">
         <v>370</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>53</v>
+      <c r="AE25" s="6"/>
+      <c r="AF25" t="s">
+        <v>369</v>
       </c>
       <c r="AL25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="AN25" t="s">
         <v>317</v>
@@ -3520,10 +3697,10 @@
       <c r="AO25" t="s">
         <v>317</v>
       </c>
-      <c r="AT25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU25" t="s">
+      <c r="AP25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>317</v>
       </c>
       <c r="AV25" t="s">
@@ -3532,14 +3709,20 @@
       <c r="AW25" t="s">
         <v>317</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="AX25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY25" t="s">
         <v>317</v>
       </c>
       <c r="BB25" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="26" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
@@ -3580,22 +3763,23 @@
         <v>51</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AJ26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="AE26" s="6"/>
       <c r="AL26" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -3642,7 +3826,7 @@
         <v>289</v>
       </c>
       <c r="U27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W27" t="s">
         <v>280</v>
@@ -3650,26 +3834,27 @@
       <c r="Z27" t="s">
         <v>282</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AE27" s="6"/>
+      <c r="AK27" t="s">
         <v>290</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>53</v>
-      </c>
       <c r="AL27" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>284</v>
       </c>
-      <c r="AR27" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT27" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
@@ -3709,11 +3894,12 @@
       <c r="M28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AE28" s="6"/>
+      <c r="AL28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -3754,16 +3940,17 @@
         <v>114</v>
       </c>
       <c r="P29" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="AE29" s="6"/>
+      <c r="AL29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>175</v>
       </c>
@@ -3806,58 +3993,75 @@
       <c r="P30" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AJ30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="AE30" s="6"/>
+      <c r="AL30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>-99999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>-99999</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE31" s="6"/>
+      <c r="AK31" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV31" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
@@ -3897,11 +4101,33 @@
       <c r="M32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE32" s="6"/>
+      <c r="AK32" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -3941,11 +4167,33 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>323</v>
+      </c>
+      <c r="W33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE33" s="6"/>
+      <c r="AK33" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
@@ -3985,11 +4233,33 @@
       <c r="M34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="O34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE34" s="6"/>
+      <c r="AK34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4029,11 +4299,36 @@
       <c r="M35" t="s">
         <v>51</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>323</v>
+      </c>
+      <c r="R35" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE35" s="6"/>
+      <c r="AL35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>197</v>
       </c>
@@ -4073,11 +4368,27 @@
       <c r="M36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="O36" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE36" s="6"/>
+      <c r="AK36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY36" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -4117,11 +4428,54 @@
       <c r="M37" t="s">
         <v>75</v>
       </c>
-      <c r="AJ37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P37" t="s">
+        <v>345</v>
+      </c>
+      <c r="R37" t="s">
+        <v>381</v>
+      </c>
+      <c r="S37" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE37" s="6"/>
+      <c r="AF37" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>204</v>
       </c>
@@ -4161,6 +4515,9 @@
       <c r="M38" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="O38" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="R38" s="2" t="s">
         <v>292</v>
       </c>
@@ -4170,32 +4527,36 @@
       <c r="W38" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="X38" s="2">
-        <v>2</v>
+      <c r="X38" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AJ38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO38" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS38" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT38" s="2" t="s">
+      <c r="AE38" s="6"/>
+      <c r="AL38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
         <v>284</v>
       </c>
       <c r="AU38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AZ38" s="2" t="s">
+      <c r="AV38" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AW38" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB38" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>207</v>
       </c>
@@ -4235,11 +4596,24 @@
       <c r="M39" t="s">
         <v>51</v>
       </c>
-      <c r="AJ39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>318</v>
+      </c>
+      <c r="W39" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE39" s="6"/>
+      <c r="AL39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>210</v>
       </c>
@@ -4279,6 +4653,9 @@
       <c r="M40" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="O40" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="R40" s="2" t="s">
         <v>296</v>
       </c>
@@ -4291,23 +4668,27 @@
       <c r="AC40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AI40" s="2" t="s">
+      <c r="AE40" s="6"/>
+      <c r="AK40" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AJ40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO40" s="2" t="s">
+      <c r="AL40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT40" s="2" t="s">
+      <c r="AV40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AZ40" s="2" t="s">
+      <c r="BB40" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4347,11 +4728,12 @@
       <c r="M41" t="s">
         <v>75</v>
       </c>
-      <c r="AJ41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE41" s="6"/>
+      <c r="AL41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
@@ -4391,11 +4773,18 @@
       <c r="M42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="P42" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE42" s="6"/>
+      <c r="AL42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -4435,11 +4824,30 @@
       <c r="M43" t="s">
         <v>51</v>
       </c>
-      <c r="AJ43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V43" t="s">
+        <v>396</v>
+      </c>
+      <c r="W43" t="s">
+        <v>280</v>
+      </c>
+      <c r="X43" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE43" s="6"/>
+      <c r="AL43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>223</v>
       </c>
@@ -4479,17 +4887,24 @@
       <c r="M44" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="P44" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="R44" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AJ44" s="2" t="s">
+      <c r="AE44" s="6"/>
+      <c r="AL44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AO44" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -4529,11 +4944,12 @@
       <c r="M45" t="s">
         <v>51</v>
       </c>
-      <c r="AJ45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE45" s="6"/>
+      <c r="AL45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>231</v>
       </c>
@@ -4573,11 +4989,18 @@
       <c r="M46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ46" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="P46" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE46" s="6"/>
+      <c r="AL46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -4617,11 +5040,12 @@
       <c r="M47" t="s">
         <v>51</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE47" s="6"/>
+      <c r="AL47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>236</v>
       </c>
@@ -4661,11 +5085,12 @@
       <c r="M48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE48" s="6"/>
+      <c r="AL48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>240</v>
       </c>
@@ -4705,17 +5130,41 @@
       <c r="M49" t="s">
         <v>51</v>
       </c>
+      <c r="O49" t="s">
+        <v>393</v>
+      </c>
+      <c r="P49" t="s">
+        <v>345</v>
+      </c>
       <c r="Z49" t="s">
         <v>282</v>
       </c>
-      <c r="AJ49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW49" t="s">
+      <c r="AA49" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE49" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AY49" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="50" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ49" t="s">
+        <v>391</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>244</v>
       </c>
@@ -4755,11 +5204,12 @@
       <c r="M50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE50" s="6"/>
+      <c r="AL50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -4799,11 +5249,12 @@
       <c r="M51" t="s">
         <v>51</v>
       </c>
-      <c r="AJ51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE51" s="6"/>
+      <c r="AL51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>250</v>
       </c>
@@ -4843,11 +5294,12 @@
       <c r="M52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE52" s="6"/>
+      <c r="AL52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -4887,11 +5339,12 @@
       <c r="M53" t="s">
         <v>75</v>
       </c>
-      <c r="AJ53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE53" s="6"/>
+      <c r="AL53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>255</v>
       </c>
@@ -4931,11 +5384,12 @@
       <c r="M54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ54" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE54" s="6"/>
+      <c r="AL54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -4975,11 +5429,12 @@
       <c r="M55" t="s">
         <v>75</v>
       </c>
-      <c r="AJ55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE55" s="6"/>
+      <c r="AL55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>263</v>
       </c>
@@ -5019,11 +5474,12 @@
       <c r="M56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE56" s="6"/>
+      <c r="AL56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>266</v>
       </c>
@@ -5063,11 +5519,12 @@
       <c r="M57" t="s">
         <v>75</v>
       </c>
-      <c r="AJ57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE57" s="6"/>
+      <c r="AL57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>269</v>
       </c>
@@ -5107,11 +5564,12 @@
       <c r="M58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ58" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AE58" s="6"/>
+      <c r="AL58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -5154,11 +5612,12 @@
       <c r="N59" t="s">
         <v>52</v>
       </c>
-      <c r="AJ59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE59" s="6"/>
+      <c r="AL59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>274</v>
       </c>
@@ -5198,12 +5657,19 @@
       <c r="M60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ60" s="2" t="s">
+      <c r="AE60" s="6"/>
+      <c r="AL60" s="2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BE1" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}"/>
+  <autoFilter ref="A1:BI60" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="corticated_foliose"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/algae-traits_literature-search.xlsx
+++ b/data/algae-traits_literature-search.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/An/github/algae-traits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB3A6B-F67B-8640-8BB4-48BE9B352031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF6BD4-7540-484B-9977-730071992ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32560" yWindow="-1460" windowWidth="34640" windowHeight="20220" xr2:uid="{89E3F277-A7AF-8A44-AE7F-6D4A2DA81664}"/>
+    <workbookView xWindow="32020" yWindow="-480" windowWidth="28800" windowHeight="17500" xr2:uid="{89E3F277-A7AF-8A44-AE7F-6D4A2DA81664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BI$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="528">
   <si>
     <t>sp_code</t>
   </si>
@@ -934,12 +934,6 @@
   </si>
   <si>
     <t>intertidal to subtidal</t>
-  </si>
-  <si>
-    <t>Laurencia pinnatifida var spectabilis</t>
-  </si>
-  <si>
-    <t>15 cm</t>
   </si>
   <si>
     <t>10 - 35 cm</t>
@@ -1070,9 +1064,6 @@
     <t>4 - 10 (18) cm</t>
   </si>
   <si>
-    <t>tufts</t>
-  </si>
-  <si>
     <t>bipinnate to tripinnate</t>
   </si>
   <si>
@@ -1082,9 +1073,6 @@
     <t>dichotomo-fastigiately</t>
   </si>
   <si>
-    <t>for Cryptopleura genus</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -1181,9 +1169,6 @@
     <t>2 cm</t>
   </si>
   <si>
-    <t>annual blades, perennial holdfast</t>
-  </si>
-  <si>
     <t>description from Neoptilota and Ptilota genus descriptions</t>
   </si>
   <si>
@@ -1229,9 +1214,6 @@
     <t>Breda and Foster 1985</t>
   </si>
   <si>
-    <t>perennial (corymbifera)</t>
-  </si>
-  <si>
     <t>"tolerates the extreme, exposed oceanic conditions prevalent at offshore rocks"</t>
   </si>
   <si>
@@ -1253,24 +1235,15 @@
     <t>0.5 - 2.5 mm</t>
   </si>
   <si>
-    <t>alternate-distichously</t>
-  </si>
-  <si>
     <t>Perrone and Cecere 1994</t>
   </si>
   <si>
-    <t>annual (spring-summer ephemeral)</t>
-  </si>
-  <si>
     <t>Vandermeulen and Dewreede 1986</t>
   </si>
   <si>
     <t>Breda and Foster 1985, Schiel 1985</t>
   </si>
   <si>
-    <t xml:space="preserve">annual </t>
-  </si>
-  <si>
     <t>Edwards 1998</t>
   </si>
   <si>
@@ -1287,6 +1260,390 @@
   </si>
   <si>
     <t>spring</t>
+  </si>
+  <si>
+    <t>ephemeral (spring-summer)</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>posture_source</t>
+  </si>
+  <si>
+    <t>alternate, irregular, flabellately</t>
+  </si>
+  <si>
+    <t>low intertidal to subtidal</t>
+  </si>
+  <si>
+    <t>15 (20) cm</t>
+  </si>
+  <si>
+    <t>dichotomously</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>posture from Phycodrys isabelliae</t>
+  </si>
+  <si>
+    <t>Neoagardhiella baileyi</t>
+  </si>
+  <si>
+    <t>10 - 40 cm</t>
+  </si>
+  <si>
+    <t>irregular, sparse or dense, radial or distichous</t>
+  </si>
+  <si>
+    <t>20 - 30 (80) cm</t>
+  </si>
+  <si>
+    <t>2.5 - 5 (7) cm</t>
+  </si>
+  <si>
+    <t>ephemeral (summer)</t>
+  </si>
+  <si>
+    <t>mid intertidal to subtidal</t>
+  </si>
+  <si>
+    <t>15 - 25 cm</t>
+  </si>
+  <si>
+    <t>low intertidal</t>
+  </si>
+  <si>
+    <t>2.3 m</t>
+  </si>
+  <si>
+    <t>1.5 m</t>
+  </si>
+  <si>
+    <t>80 cm</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>10 - 15 (45) cm</t>
+  </si>
+  <si>
+    <t>mean tide to subtidal</t>
+  </si>
+  <si>
+    <t>epiphytic</t>
+  </si>
+  <si>
+    <t>(25) cm</t>
+  </si>
+  <si>
+    <t>dichotomously to irregularly</t>
+  </si>
+  <si>
+    <t>10 - 20 mm</t>
+  </si>
+  <si>
+    <t>10 - 20 (30) mm</t>
+  </si>
+  <si>
+    <t>(1) mm</t>
+  </si>
+  <si>
+    <t>deeply subtidal</t>
+  </si>
+  <si>
+    <t>(7) cm</t>
+  </si>
+  <si>
+    <t>regularly dichotomous, flabellately</t>
+  </si>
+  <si>
+    <t>lower intertidal to subtidal</t>
+  </si>
+  <si>
+    <t>Miller 1987, Abbott and Hollenberg 1976</t>
+  </si>
+  <si>
+    <t>perennial or annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10) m </t>
+  </si>
+  <si>
+    <t>repeatedly and alternately</t>
+  </si>
+  <si>
+    <t>(10) cm</t>
+  </si>
+  <si>
+    <t>all year, or March through June</t>
+  </si>
+  <si>
+    <t>regularly dichotomously</t>
+  </si>
+  <si>
+    <t>3 - 15 cm</t>
+  </si>
+  <si>
+    <t>mid to subtidal</t>
+  </si>
+  <si>
+    <t>Pseudogloiophloea confusa</t>
+  </si>
+  <si>
+    <t>20 - 30 (70) cm</t>
+  </si>
+  <si>
+    <t>4 - 6 mm</t>
+  </si>
+  <si>
+    <t>(1) 2 - 5 mm</t>
+  </si>
+  <si>
+    <t>"abundant in localized areas on sheltered rocks"</t>
+  </si>
+  <si>
+    <t>lower to upper intertidal</t>
+  </si>
+  <si>
+    <t>6 - 20 cm</t>
+  </si>
+  <si>
+    <t>Stenogramme interrupta</t>
+  </si>
+  <si>
+    <t>10 - 30 (90)</t>
+  </si>
+  <si>
+    <t>10 - 60 mm</t>
+  </si>
+  <si>
+    <t>130 - 180 um</t>
+  </si>
+  <si>
+    <t>lower intertidal to upper subtidal</t>
+  </si>
+  <si>
+    <t>"often partially embedded in sand"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6) cm </t>
+  </si>
+  <si>
+    <t>Red Algal Turf spp.</t>
+  </si>
+  <si>
+    <t>personally assigned</t>
+  </si>
+  <si>
+    <t>Dayton 1985, Ecology of Kelp Communities</t>
+  </si>
+  <si>
+    <t>subdichotomous to flabellate</t>
+  </si>
+  <si>
+    <t>Miller et al. 2020, Proc B</t>
+  </si>
+  <si>
+    <t>3 cm</t>
+  </si>
+  <si>
+    <t>6 - 25 mm</t>
+  </si>
+  <si>
+    <t>1 - 4 (7) cm (for sacs)</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>height_class_level</t>
+  </si>
+  <si>
+    <t>life_habit_level</t>
+  </si>
+  <si>
+    <t>longevity_level</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>posture_level</t>
+  </si>
+  <si>
+    <t>pneumatocysts_yn_level</t>
+  </si>
+  <si>
+    <t>length_level</t>
+  </si>
+  <si>
+    <t>stipe_length_level</t>
+  </si>
+  <si>
+    <t>blade_length_level</t>
+  </si>
+  <si>
+    <t>width_level</t>
+  </si>
+  <si>
+    <t>thickness_mm_level</t>
+  </si>
+  <si>
+    <t>branching_yn_level</t>
+  </si>
+  <si>
+    <t>branching_order_level</t>
+  </si>
+  <si>
+    <t>holdfast_size_level</t>
+  </si>
+  <si>
+    <t>holdfast_shape_level</t>
+  </si>
+  <si>
+    <t>exposure_tolerance_level</t>
+  </si>
+  <si>
+    <t>photosynthetic_pigment_level</t>
+  </si>
+  <si>
+    <t>depth_range_level</t>
+  </si>
+  <si>
+    <t>dispersal_mechanism_level</t>
+  </si>
+  <si>
+    <t>horizontal_spread_yn_level</t>
+  </si>
+  <si>
+    <t>reproductive_season_level</t>
+  </si>
+  <si>
+    <t>recruiting_season_level</t>
+  </si>
+  <si>
+    <t>reproductive_cycle_level</t>
+  </si>
+  <si>
+    <t>spore_diameter_microm_level</t>
+  </si>
+  <si>
+    <t>spore_density_gcc_level</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>discoid</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>annual or perennial</t>
+  </si>
+  <si>
+    <t>Benson 1985</t>
+  </si>
+  <si>
+    <t>prostrate</t>
+  </si>
+  <si>
+    <t>Norris 2014</t>
+  </si>
+  <si>
+    <t>annual, ephemeral</t>
+  </si>
+  <si>
+    <t>(3) 10 – 20 mm</t>
+  </si>
+  <si>
+    <t>perennate</t>
+  </si>
+  <si>
+    <t>Littler and Kauker 1984</t>
+  </si>
+  <si>
+    <t>Wootton 2002</t>
+  </si>
+  <si>
+    <t>mid-canopy</t>
+  </si>
+  <si>
+    <t>canopy</t>
+  </si>
+  <si>
+    <t>6 - 18 (andersonii), (15) cm (robusta), (2) m (sjoestedtii), 10 - 20 cm (textorii, 8-15 cm (turgida), 6-8 cm (veleroae), 30-50 cm (verrucosa)</t>
+  </si>
+  <si>
+    <t>1-3 mm (robusta)</t>
+  </si>
+  <si>
+    <t>1-1.3 mm (andersonii), 2-5 mm (turgida), 5-7 mm (veleroae)</t>
+  </si>
+  <si>
+    <t>Mantri et al. 2010</t>
+  </si>
+  <si>
+    <t>disc or crust</t>
+  </si>
+  <si>
+    <t>4 - 7 cm (leptophyllus), 10-18 cm (linearis), (16) cm (martinensis), 8 - 15 (25) cmplatyphyllus</t>
+  </si>
+  <si>
+    <t>4 - 15 cm (affine), 25 - 40 (300) cm (californicum), 50 - 70 cm (oweniae), 8 - 15 (20) cm (roseum)</t>
+  </si>
+  <si>
+    <t>2 - 10 (20) cm (californicum), 4 - 12 (oweniae)</t>
+  </si>
+  <si>
+    <t>2 - 3 mm (roseum)</t>
+  </si>
+  <si>
+    <t>erect, prostrate</t>
+  </si>
+  <si>
+    <t>3-4 cm (blinksii)</t>
+  </si>
+  <si>
+    <t>1.5-2(3.5) mm (masonii)</t>
+  </si>
+  <si>
+    <t>yes (blinksii, decidua, pacifica)</t>
+  </si>
+  <si>
+    <t>4-7(9) cm (blinksii), 3-8 (10) cm (crispa), 6-10 cm (gardneri), 2-3 cm (lajolla), 60-20 cm (masonii), 6-16(30) cm (pacifica), 1.6-0 cm (sinicola), 30 cm (spectabilis), 3-20(30) cm (splendens), 6 cm (subdisticha), 5-14 cm (subopposita)</t>
+  </si>
+  <si>
+    <t>Laurencia spectabilis var spectabilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5 (6) mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perennial </t>
+  </si>
+  <si>
+    <t>erect or prostrate</t>
+  </si>
+  <si>
+    <t>Abbott and Hollenberg 1976, Druehl 1966</t>
+  </si>
+  <si>
+    <t>crustose_red</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1369,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1377,11 +1740,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1691,14 +2085,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:BI60"/>
+  <dimension ref="A1:CI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,25 +2104,25 @@
     <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="14.33203125" customWidth="1"/>
-    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.6640625" customWidth="1"/>
-    <col min="32" max="32" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24" customWidth="1"/>
+    <col min="17" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="14.33203125" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.6640625" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.83203125" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,142 +2172,220 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1945,7 +2416,7 @@
       <c r="J2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1954,36 +2425,48 @@
       <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AL2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AK2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>317</v>
+      <c r="AR2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2014,7 +2497,7 @@
       <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L3" t="s">
@@ -2023,45 +2506,69 @@
       <c r="M3" t="s">
         <v>51</v>
       </c>
+      <c r="N3" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S3" t="s">
+        <v>317</v>
+      </c>
+      <c r="V3" t="s">
         <v>318</v>
       </c>
-      <c r="R3" t="s">
+      <c r="X3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y3" t="s">
         <v>319</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AF3" s="6"/>
+      <c r="AL3" t="s">
         <v>320</v>
       </c>
-      <c r="W3" t="s">
-        <v>280</v>
-      </c>
-      <c r="X3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE3" s="6"/>
-      <c r="AK3" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" t="s">
-        <v>317</v>
+      <c r="AP3" t="s">
+        <v>315</v>
       </c>
       <c r="AQ3" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>470</v>
       </c>
       <c r="AT3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>317</v>
+        <v>458</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -2092,7 +2599,7 @@
       <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2101,33 +2608,63 @@
       <c r="M4" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O4" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="W4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AK4" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="Y4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF4" s="6"/>
       <c r="AL4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>317</v>
+      <c r="AP4" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV4" s="2" t="s">
-        <v>324</v>
+      <c r="BH4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2158,7 +2695,7 @@
       <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L5" t="s">
@@ -2167,12 +2704,18 @@
       <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AL5" t="s">
+      <c r="N5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="AF5" s="6"/>
+      <c r="AM5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -2203,7 +2746,7 @@
       <c r="J6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2212,39 +2755,69 @@
       <c r="M6" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N6" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="W6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE6" s="6"/>
-      <c r="AK6" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="Y6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF6" s="6"/>
       <c r="AL6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN6" s="2" t="s">
-        <v>317</v>
+      <c r="AP6" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ6" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>324</v>
+      <c r="BD6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2275,7 +2848,7 @@
       <c r="J7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L7" t="s">
@@ -2284,43 +2857,85 @@
       <c r="M7" t="s">
         <v>51</v>
       </c>
+      <c r="N7" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S7" t="s">
         <v>323</v>
       </c>
-      <c r="R7" t="s">
-        <v>325</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="U7" t="s">
+        <v>464</v>
+      </c>
+      <c r="V7" t="s">
+        <v>463</v>
+      </c>
+      <c r="X7" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE7" s="6"/>
-      <c r="AL7" t="s">
+      <c r="Y7" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF7" s="6"/>
+      <c r="AM7" t="s">
         <v>53</v>
       </c>
-      <c r="AN7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AP7" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="AQ7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
     </row>
-    <row r="8" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +2966,7 @@
       <c r="J8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2360,54 +2975,73 @@
       <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N8" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="X8" s="8"/>
+      <c r="AB8" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="AF8" s="6"/>
+      <c r="AL8" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AA8" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE8" s="6"/>
-      <c r="AK8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>317</v>
+      <c r="AP8" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>317</v>
+        <v>493</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2438,7 +3072,7 @@
       <c r="J9" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L9" t="s">
@@ -2447,12 +3081,20 @@
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="6"/>
-      <c r="AL9" t="s">
+      <c r="N9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="X9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF9" s="6"/>
+      <c r="AM9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -2483,7 +3125,7 @@
       <c r="J10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2492,48 +3134,75 @@
       <c r="M10" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AL10" s="2" t="s">
+      <c r="AF10" s="6"/>
+      <c r="AM10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN10" s="2" t="s">
-        <v>317</v>
+      <c r="AP10" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="BD10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="BH10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AW10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB10" s="2" t="s">
+      <c r="BJ10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT10" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="BU10" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2564,7 +3233,7 @@
       <c r="J11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L11" t="s">
@@ -2573,51 +3242,79 @@
       <c r="M11" t="s">
         <v>51</v>
       </c>
+      <c r="N11" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O11" t="s">
-        <v>323</v>
-      </c>
-      <c r="P11" t="s">
-        <v>389</v>
-      </c>
-      <c r="R11" t="s">
-        <v>334</v>
-      </c>
-      <c r="U11" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC11" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S11" t="s">
+        <v>332</v>
+      </c>
+      <c r="V11" t="s">
+        <v>327</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="AD11" t="s">
         <v>298</v>
       </c>
-      <c r="AE11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AK11" t="s">
-        <v>333</v>
-      </c>
       <c r="AL11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM11" t="s">
         <v>53</v>
       </c>
-      <c r="AN11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>388</v>
+      <c r="AP11" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR11" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="AT11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>388</v>
+        <v>315</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BD11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE11" s="3"/>
+      <c r="BT11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU11" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>383</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2648,69 +3345,102 @@
       <c r="J12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>64</v>
+      <c r="K12" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>336</v>
+      <c r="N12" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="W12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="X12" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE12" s="6"/>
-      <c r="AI12" s="2">
+      <c r="AF12" s="6"/>
+      <c r="AJ12" s="2">
         <v>17.3</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AK12" s="2">
         <v>1.1020000000000001</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AM12" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="AN12" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="AQ12" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="BH12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="BJ12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BN12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="BT12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BH12" s="2" t="s">
+      <c r="BU12" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="CF12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BI12" s="2" t="s">
+      <c r="CH12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2741,7 +3471,7 @@
       <c r="J13" t="s">
         <v>71</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>112</v>
       </c>
       <c r="L13" t="s">
@@ -2750,42 +3480,58 @@
       <c r="M13" t="s">
         <v>114</v>
       </c>
-      <c r="N13" t="s">
-        <v>336</v>
+      <c r="N13" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>323</v>
-      </c>
-      <c r="R13" t="s">
-        <v>312</v>
-      </c>
-      <c r="W13" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S13" t="s">
+        <v>310</v>
+      </c>
+      <c r="X13" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>298</v>
       </c>
-      <c r="AE13" s="6"/>
-      <c r="AL13" t="s">
+      <c r="AF13" s="6"/>
+      <c r="AM13" t="s">
         <v>53</v>
       </c>
-      <c r="AM13" t="s">
-        <v>317</v>
-      </c>
       <c r="AN13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
@@ -2816,7 +3562,7 @@
       <c r="J14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -2825,42 +3571,77 @@
       <c r="M14" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AL14" s="2" t="s">
+      <c r="AF14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN14" s="2" t="s">
-        <v>317</v>
+      <c r="AP14" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="AQ14" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX14" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>317</v>
+      <c r="BH14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX14" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="BY14" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2891,7 +3672,7 @@
       <c r="J15" t="s">
         <v>71</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L15" t="s">
@@ -2900,42 +3681,58 @@
       <c r="M15" t="s">
         <v>114</v>
       </c>
+      <c r="N15" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O15" t="s">
-        <v>323</v>
-      </c>
-      <c r="R15" t="s">
-        <v>338</v>
-      </c>
-      <c r="W15" t="s">
+        <v>321</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S15" t="s">
+        <v>335</v>
+      </c>
+      <c r="X15" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X15" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA15" t="s">
         <v>282</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>298</v>
       </c>
-      <c r="AE15" s="6"/>
-      <c r="AL15" t="s">
+      <c r="AF15" s="6"/>
+      <c r="AM15" t="s">
         <v>53</v>
       </c>
-      <c r="AN15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>317</v>
+      <c r="AP15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -2966,7 +3763,7 @@
       <c r="J16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -2975,27 +3772,39 @@
       <c r="M16" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="N16" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O16" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE16" s="6"/>
-      <c r="AL16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF16" s="6"/>
+      <c r="AM16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>400</v>
+      <c r="AP16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3026,7 +3835,7 @@
       <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L17" t="s">
@@ -3035,21 +3844,51 @@
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="W17" t="s">
+      <c r="N17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="X17" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE17" s="6"/>
-      <c r="AK17" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL17" t="s">
+      <c r="AF17" s="6"/>
+      <c r="AM17" t="s">
         <v>53</v>
       </c>
-      <c r="AV17" t="s">
-        <v>317</v>
+      <c r="AP17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AR17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU17" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
@@ -3080,7 +3919,7 @@
       <c r="J18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -3089,69 +3928,93 @@
       <c r="M18" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="N18" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="O18" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="AF18" s="6"/>
       <c r="AG18" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>347</v>
+        <v>389</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="AL18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="AP18" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE18" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="BF18" s="2" t="s">
-        <v>407</v>
+        <v>470</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BZ18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="CB18" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -3182,8 +4045,8 @@
       <c r="J19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>64</v>
+      <c r="K19" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>65</v>
@@ -3191,54 +4054,81 @@
       <c r="M19" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="N19" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O19" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="W19" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="X19" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AA19" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AE19" s="6"/>
-      <c r="AK19" s="3" t="s">
+      <c r="AF19" s="6"/>
+      <c r="AL19" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AL19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AN19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
+      <c r="AP19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AV19" s="3" t="s">
+      <c r="BH19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AY19" s="3" t="s">
+      <c r="BN19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AZ19" s="3" t="s">
+      <c r="BP19" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BB19" s="3" t="s">
+      <c r="BT19" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="BU19" s="3" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
@@ -3269,7 +4159,7 @@
       <c r="J20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -3278,69 +4168,91 @@
       <c r="M20" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="N20" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="O20" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="W20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="X20" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Z20" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD20" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE20" s="6"/>
-      <c r="AG20" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AF20" s="6"/>
+      <c r="AH20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>403</v>
+      <c r="AP20" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV20" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT20" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ20" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BF20" s="2" t="s">
-        <v>407</v>
+        <v>315</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BP20" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BQ20" s="4"/>
+      <c r="BT20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="CB20" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -3371,7 +4283,7 @@
       <c r="J21" t="s">
         <v>71</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L21" t="s">
@@ -3380,49 +4292,78 @@
       <c r="M21" t="s">
         <v>75</v>
       </c>
+      <c r="N21" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="U21" t="s">
-        <v>358</v>
-      </c>
-      <c r="W21" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="V21" t="s">
+        <v>354</v>
+      </c>
+      <c r="X21" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>297</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE21" s="6"/>
-      <c r="AL21" t="s">
+      <c r="AD21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM21" t="s">
         <v>53</v>
       </c>
-      <c r="AN21" t="s">
-        <v>317</v>
+      <c r="AP21" t="s">
+        <v>315</v>
       </c>
       <c r="AQ21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU21" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU21" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>148</v>
       </c>
@@ -3453,7 +4394,7 @@
       <c r="J22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -3462,42 +4403,78 @@
       <c r="M22" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="N22" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O22" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="W22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="X22" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE22" s="6"/>
-      <c r="AL22" s="2" t="s">
+      <c r="AF22" s="6"/>
+      <c r="AM22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN22" s="2" t="s">
-        <v>317</v>
+      <c r="AP22" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB22" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU22" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3528,7 +4505,7 @@
       <c r="J23" t="s">
         <v>71</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L23" t="s">
@@ -3537,42 +4514,69 @@
       <c r="M23" t="s">
         <v>75</v>
       </c>
+      <c r="N23" s="8" t="s">
+        <v>505</v>
+      </c>
       <c r="O23" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="S23" t="s">
-        <v>363</v>
-      </c>
-      <c r="W23" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="T23" t="s">
+        <v>359</v>
+      </c>
+      <c r="X23" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC23" s="3" t="s">
+      <c r="Y23" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD23" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AE23" s="6"/>
-      <c r="AL23" t="s">
+      <c r="AF23" s="6"/>
+      <c r="AM23" t="s">
         <v>53</v>
       </c>
-      <c r="AN23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>317</v>
+      <c r="AP23" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU23" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>154</v>
       </c>
@@ -3603,21 +4607,37 @@
       <c r="J24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>91</v>
+      <c r="K24" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" s="6"/>
-      <c r="AL24" s="2" t="s">
-        <v>53</v>
+      <c r="N24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="AF24" s="6"/>
+      <c r="AR24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -3648,7 +4668,7 @@
       <c r="J25" t="s">
         <v>71</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L25" t="s">
@@ -3657,72 +4677,93 @@
       <c r="M25" t="s">
         <v>75</v>
       </c>
+      <c r="N25" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="O25" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" t="s">
+        <v>321</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R25" t="s">
         <v>280</v>
       </c>
-      <c r="R25" t="s">
-        <v>368</v>
-      </c>
-      <c r="W25" s="3" t="s">
+      <c r="S25" t="s">
+        <v>364</v>
+      </c>
+      <c r="X25" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X25" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD25" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AF25" s="6"/>
+      <c r="AG25" t="s">
         <v>365</v>
       </c>
-      <c r="AC25" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE25" s="6"/>
-      <c r="AF25" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>53</v>
       </c>
-      <c r="AN25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>317</v>
-      </c>
       <c r="AP25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ25" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>458</v>
       </c>
       <c r="AV25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AW25" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="AX25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
@@ -3753,33 +4794,60 @@
       <c r="J26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>91</v>
+      <c r="K26" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>371</v>
+      <c r="N26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE26" s="6"/>
-      <c r="AL26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="X26" s="8"/>
+      <c r="AF26" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="BY26" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -3810,7 +4878,7 @@
       <c r="J27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L27" t="s">
@@ -3819,42 +4887,66 @@
       <c r="M27" t="s">
         <v>51</v>
       </c>
+      <c r="N27" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O27" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="R27" t="s">
+        <v>321</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="S27" t="s">
         <v>289</v>
       </c>
-      <c r="U27" t="s">
-        <v>372</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="V27" t="s">
+        <v>368</v>
+      </c>
+      <c r="X27" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>282</v>
       </c>
-      <c r="AE27" s="6"/>
-      <c r="AK27" t="s">
+      <c r="AF27" s="6"/>
+      <c r="AL27" t="s">
         <v>290</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>53</v>
       </c>
-      <c r="AN27" t="s">
-        <v>317</v>
+      <c r="AP27" t="s">
+        <v>315</v>
       </c>
       <c r="AQ27" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU27" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX27" t="s">
         <v>284</v>
       </c>
-      <c r="AT27" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>317</v>
+      <c r="BD27" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
@@ -3885,7 +4977,7 @@
       <c r="J28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="8" t="s">
         <v>112</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -3894,12 +4986,37 @@
       <c r="M28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE28" s="6"/>
-      <c r="AL28" s="2" t="s">
+      <c r="N28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF28" s="6"/>
+      <c r="AM28" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AP28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="29" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -3930,7 +5047,7 @@
       <c r="J29" t="s">
         <v>71</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="8" t="s">
         <v>173</v>
       </c>
       <c r="L29" t="s">
@@ -3939,18 +5056,30 @@
       <c r="M29" t="s">
         <v>114</v>
       </c>
-      <c r="P29" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE29" s="6"/>
-      <c r="AL29" t="s">
+      <c r="N29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="X29" s="8"/>
+      <c r="AF29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM29" t="s">
         <v>53</v>
       </c>
-      <c r="AO29" t="s">
-        <v>317</v>
+      <c r="AR29" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>175</v>
       </c>
@@ -3981,7 +5110,7 @@
       <c r="J30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -3990,18 +5119,28 @@
       <c r="M30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE30" s="6"/>
-      <c r="AL30" s="2" t="s">
+      <c r="N30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="AF30" s="6"/>
+      <c r="AM30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AO30" s="2" t="s">
-        <v>317</v>
+      <c r="AR30" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:58" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>176</v>
       </c>
@@ -4032,7 +5171,7 @@
       <c r="J31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -4041,27 +5180,43 @@
       <c r="M31" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="N31" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O31" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="W31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="X31" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE31" s="6"/>
-      <c r="AK31" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="AF31" s="6"/>
       <c r="AL31" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AN31" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV31" s="3" t="s">
-        <v>317</v>
+      <c r="AP31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU31" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="BH31" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:58" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:80" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
@@ -4092,7 +5247,7 @@
       <c r="J32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -4101,33 +5256,65 @@
       <c r="M32" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="W32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="X32" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE32" s="6"/>
-      <c r="AK32" s="2" t="s">
-        <v>376</v>
+      <c r="AF32" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AL32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN32" s="2" t="s">
-        <v>317</v>
+      <c r="AP32" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV32" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU32" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BX32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="BY32" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="33" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -4158,7 +5345,7 @@
       <c r="J33" t="s">
         <v>47</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L33" t="s">
@@ -4167,33 +5354,101 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
+      <c r="N33" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O33" t="s">
-        <v>323</v>
-      </c>
-      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="V33" t="s">
+        <v>509</v>
+      </c>
+      <c r="X33" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>282</v>
       </c>
-      <c r="AE33" s="6"/>
-      <c r="AK33" t="s">
-        <v>377</v>
+      <c r="AF33" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AL33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM33" t="s">
         <v>53</v>
       </c>
-      <c r="AN33" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>317</v>
+      <c r="AP33" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>492</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AT33" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU33" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX33" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AZ33" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA33" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="BD33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE33" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>492</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="34" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
@@ -4224,7 +5479,7 @@
       <c r="J34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -4233,33 +5488,71 @@
       <c r="M34" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N34" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="W34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="X34" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE34" s="6"/>
-      <c r="AK34" s="2" t="s">
-        <v>378</v>
+      <c r="AA34" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AL34" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN34" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV34" s="2" t="s">
-        <v>317</v>
+      <c r="AP34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AR34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS34" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU34" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX34" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AY34" s="2" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="BH34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI34" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="BN34" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4290,7 +5583,7 @@
       <c r="J35" t="s">
         <v>47</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L35" t="s">
@@ -4299,36 +5592,64 @@
       <c r="M35" t="s">
         <v>51</v>
       </c>
+      <c r="N35" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O35" t="s">
-        <v>323</v>
-      </c>
-      <c r="R35" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z35" t="s">
+        <v>321</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S35" t="s">
+        <v>374</v>
+      </c>
+      <c r="V35" t="s">
+        <v>462</v>
+      </c>
+      <c r="X35" s="8"/>
+      <c r="AA35" t="s">
         <v>282</v>
       </c>
-      <c r="AC35" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE35" s="6"/>
-      <c r="AL35" t="s">
+      <c r="AD35" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF35" s="6"/>
+      <c r="AM35" t="s">
         <v>53</v>
       </c>
-      <c r="AN35" t="s">
-        <v>317</v>
+      <c r="AP35" t="s">
+        <v>315</v>
       </c>
       <c r="AQ35" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>317</v>
+        <v>470</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>197</v>
       </c>
@@ -4359,7 +5680,7 @@
       <c r="J36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -4368,27 +5689,90 @@
       <c r="M36" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N36" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O36" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="X36" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AE36" s="6"/>
-      <c r="AK36" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="AF36" s="6"/>
       <c r="AL36" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN36" s="2" t="s">
-        <v>317</v>
+      <c r="AP36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX36" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AY36" s="2" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="AZ36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA36" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BD36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE36" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="BH36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI36" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="BN36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO36" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -4419,7 +5803,7 @@
       <c r="J37" t="s">
         <v>71</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L37" t="s">
@@ -4428,54 +5812,81 @@
       <c r="M37" t="s">
         <v>75</v>
       </c>
+      <c r="N37" s="8" t="s">
+        <v>505</v>
+      </c>
       <c r="O37" t="s">
-        <v>323</v>
-      </c>
-      <c r="P37" t="s">
-        <v>345</v>
-      </c>
-      <c r="R37" t="s">
-        <v>381</v>
+        <v>321</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="S37" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC37" t="s">
+        <v>376</v>
+      </c>
+      <c r="T37" t="s">
+        <v>377</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD37" t="s">
         <v>298</v>
       </c>
-      <c r="AE37" s="6"/>
-      <c r="AF37" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="AF37" s="6"/>
+      <c r="AG37" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM37" t="s">
         <v>53</v>
       </c>
-      <c r="AN37" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>317</v>
+      <c r="AP37" t="s">
+        <v>315</v>
       </c>
       <c r="AQ37" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="AR37" t="s">
-        <v>317</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>317</v>
+        <v>525</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>470</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>470</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>204</v>
       </c>
@@ -4506,7 +5917,7 @@
       <c r="J38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -4515,48 +5926,74 @@
       <c r="M38" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N38" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O38" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>516</v>
       </c>
       <c r="R38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="V38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="X38" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC38" s="2" t="s">
+      <c r="Y38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AE38" s="6"/>
-      <c r="AL38" s="2" t="s">
+      <c r="AF38" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN38" s="2" t="s">
-        <v>317</v>
+      <c r="AP38" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ38" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR38" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AU38" s="2" t="s">
+      <c r="BF38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV38" s="2" t="s">
+      <c r="BH38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AW38" s="2" t="s">
+      <c r="BJ38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BB38" s="2" t="s">
+      <c r="BT38" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="BU38" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="39" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>207</v>
       </c>
@@ -4587,7 +6024,7 @@
       <c r="J39" t="s">
         <v>47</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L39" t="s">
@@ -4596,24 +6033,84 @@
       <c r="M39" t="s">
         <v>51</v>
       </c>
+      <c r="N39" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O39" t="s">
-        <v>318</v>
-      </c>
-      <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S39" t="s">
+        <v>520</v>
+      </c>
+      <c r="V39" t="s">
+        <v>518</v>
+      </c>
+      <c r="X39" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE39" s="6"/>
-      <c r="AL39" t="s">
+      <c r="Z39" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AM39" t="s">
         <v>53</v>
       </c>
-      <c r="AN39" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>317</v>
+      <c r="AP39" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>470</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>492</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="40" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>210</v>
       </c>
@@ -4644,7 +6141,7 @@
       <c r="J40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -4653,42 +6150,92 @@
       <c r="M40" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N40" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O40" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R40" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="W40" s="2" t="s">
+      <c r="V40" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="X40" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X40" s="2" t="s">
+      <c r="Y40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AD40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AE40" s="6"/>
-      <c r="AK40" s="2" t="s">
-        <v>299</v>
+      <c r="AF40" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AL40" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN40" s="2" t="s">
-        <v>317</v>
+      <c r="AP40" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AV40" s="2" t="s">
+      <c r="AY40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BD40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BB40" s="2" t="s">
+      <c r="BI40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BT40" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="BU40" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY40" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="41" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4719,7 +6266,7 @@
       <c r="J41" t="s">
         <v>71</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L41" t="s">
@@ -4728,12 +6275,18 @@
       <c r="M41" t="s">
         <v>75</v>
       </c>
-      <c r="AE41" s="6"/>
-      <c r="AL41" t="s">
+      <c r="N41" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="AF41" s="6"/>
+      <c r="AM41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
@@ -4764,7 +6317,7 @@
       <c r="J42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -4773,18 +6326,66 @@
       <c r="M42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE42" s="6"/>
-      <c r="AL42" s="2" t="s">
+      <c r="N42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF42" s="6"/>
+      <c r="AM42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AO42" s="2" t="s">
-        <v>388</v>
+      <c r="AP42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR42" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU42" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -4815,7 +6416,7 @@
       <c r="J43" t="s">
         <v>71</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L43" t="s">
@@ -4824,30 +6425,92 @@
       <c r="M43" t="s">
         <v>51</v>
       </c>
-      <c r="V43" t="s">
-        <v>396</v>
+      <c r="N43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" t="s">
+        <v>321</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R43" t="s">
+        <v>337</v>
+      </c>
+      <c r="S43" t="s">
+        <v>410</v>
       </c>
       <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="X43" t="s">
-        <v>397</v>
-      </c>
-      <c r="AE43" s="6"/>
+      <c r="Y43" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AL43" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM43" t="s">
         <v>53</v>
       </c>
-      <c r="AU43" t="s">
-        <v>398</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>398</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>398</v>
+      <c r="AP43" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU43" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX43" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>223</v>
       </c>
@@ -4878,7 +6541,7 @@
       <c r="J44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="8" t="s">
         <v>173</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -4887,24 +6550,90 @@
       <c r="M44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>327</v>
+      <c r="N44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE44" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="X44" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AL44" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AO44" s="2" t="s">
-        <v>388</v>
+      <c r="AP44" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>284</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BH44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK44" s="4"/>
+      <c r="BN44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO44" s="4"/>
+      <c r="BT44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU44" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY44" s="4"/>
     </row>
-    <row r="45" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -4935,7 +6664,7 @@
       <c r="J45" t="s">
         <v>71</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L45" t="s">
@@ -4944,12 +6673,85 @@
       <c r="M45" t="s">
         <v>51</v>
       </c>
-      <c r="AE45" s="6"/>
-      <c r="AL45" t="s">
+      <c r="N45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" t="s">
+        <v>321</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R45" t="s">
+        <v>337</v>
+      </c>
+      <c r="S45" t="s">
+        <v>412</v>
+      </c>
+      <c r="V45" t="s">
+        <v>413</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF45" s="6"/>
+      <c r="AM45" t="s">
         <v>53</v>
       </c>
+      <c r="AP45" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU45" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN45" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO45" s="7"/>
+      <c r="BT45" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU45" s="7" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="46" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>231</v>
       </c>
@@ -4980,7 +6782,7 @@
       <c r="J46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -4989,18 +6791,67 @@
       <c r="M46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE46" s="6"/>
-      <c r="AL46" s="2" t="s">
+      <c r="N46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="X46" s="8"/>
+      <c r="AA46" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF46" s="6"/>
+      <c r="AM46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AO46" s="2" t="s">
-        <v>388</v>
+      <c r="AP46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU46" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU46" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -5031,7 +6882,7 @@
       <c r="J47" t="s">
         <v>71</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L47" t="s">
@@ -5040,12 +6891,79 @@
       <c r="M47" t="s">
         <v>51</v>
       </c>
-      <c r="AE47" s="6"/>
-      <c r="AL47" t="s">
+      <c r="N47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" t="s">
+        <v>321</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R47" t="s">
+        <v>337</v>
+      </c>
+      <c r="S47" t="s">
+        <v>416</v>
+      </c>
+      <c r="X47" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF47" s="6"/>
+      <c r="AM47" t="s">
         <v>53</v>
       </c>
+      <c r="AP47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU47" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO47" s="7"/>
+      <c r="BT47" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="48" spans="1:57" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>236</v>
       </c>
@@ -5076,7 +6994,7 @@
       <c r="J48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -5085,12 +7003,103 @@
       <c r="M48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE48" s="6"/>
-      <c r="AL48" s="2" t="s">
+      <c r="N48" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="X48" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM48" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AP48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS48" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU48" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE48" s="4"/>
+      <c r="BJ48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK48" s="4"/>
+      <c r="BN48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BO48" s="4"/>
+      <c r="BT48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU48" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="BZ48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CA48" s="4"/>
     </row>
-    <row r="49" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>240</v>
       </c>
@@ -5121,7 +7130,7 @@
       <c r="J49" t="s">
         <v>47</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L49" t="s">
@@ -5130,41 +7139,89 @@
       <c r="M49" t="s">
         <v>51</v>
       </c>
+      <c r="N49" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O49" t="s">
-        <v>393</v>
-      </c>
-      <c r="P49" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z49" t="s">
+        <v>387</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R49" t="s">
+        <v>337</v>
+      </c>
+      <c r="S49" t="s">
+        <v>431</v>
+      </c>
+      <c r="X49" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA49" t="s">
         <v>282</v>
       </c>
-      <c r="AA49" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE49" s="6" t="s">
+      <c r="AB49" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF49" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AL49" t="s">
+      <c r="AM49" t="s">
         <v>53</v>
       </c>
-      <c r="AN49" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>392</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>391</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>391</v>
+      <c r="AP49" t="s">
+        <v>434</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU49" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>322</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>385</v>
+      </c>
+      <c r="BT49" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU49" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="50" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>244</v>
       </c>
@@ -5195,7 +7252,7 @@
       <c r="J50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="8" t="s">
         <v>91</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -5204,12 +7261,41 @@
       <c r="M50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE50" s="6"/>
+      <c r="N50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X50" s="8"/>
+      <c r="AF50" s="6"/>
       <c r="AL50" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AM50" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AP50" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="51" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -5240,7 +7326,7 @@
       <c r="J51" t="s">
         <v>47</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L51" t="s">
@@ -5249,12 +7335,96 @@
       <c r="M51" t="s">
         <v>51</v>
       </c>
-      <c r="AE51" s="6"/>
-      <c r="AL51" t="s">
+      <c r="N51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" t="s">
+        <v>321</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R51" t="s">
+        <v>337</v>
+      </c>
+      <c r="S51" t="s">
+        <v>425</v>
+      </c>
+      <c r="T51" t="s">
+        <v>427</v>
+      </c>
+      <c r="V51" t="s">
+        <v>428</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF51" s="6"/>
+      <c r="AM51" t="s">
         <v>53</v>
       </c>
+      <c r="AP51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU51" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="52" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>250</v>
       </c>
@@ -5285,7 +7455,7 @@
       <c r="J52" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -5294,12 +7464,16 @@
       <c r="M52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE52" s="6"/>
-      <c r="AL52" s="2" t="s">
+      <c r="N52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="AF52" s="6"/>
+      <c r="AM52" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -5330,7 +7504,7 @@
       <c r="J53" t="s">
         <v>71</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L53" t="s">
@@ -5339,12 +7513,90 @@
       <c r="M53" t="s">
         <v>75</v>
       </c>
-      <c r="AE53" s="6"/>
-      <c r="AL53" t="s">
+      <c r="N53" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="O53" t="s">
+        <v>321</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R53" t="s">
+        <v>280</v>
+      </c>
+      <c r="S53" t="s">
+        <v>436</v>
+      </c>
+      <c r="U53" t="s">
+        <v>438</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF53" s="6"/>
+      <c r="AG53" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM53" t="s">
         <v>53</v>
       </c>
+      <c r="AP53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU53" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>315</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>470</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="54" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>255</v>
       </c>
@@ -5375,7 +7627,7 @@
       <c r="J54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -5384,12 +7636,85 @@
       <c r="M54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE54" s="6"/>
+      <c r="N54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF54" s="6"/>
       <c r="AL54" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM54" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AP54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS54" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU54" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY54" s="4"/>
+      <c r="BD54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE54" s="4"/>
+      <c r="BH54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK54" s="4"/>
+      <c r="BT54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU54" s="4" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="55" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -5420,7 +7745,7 @@
       <c r="J55" t="s">
         <v>47</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L55" t="s">
@@ -5429,12 +7754,78 @@
       <c r="M55" t="s">
         <v>75</v>
       </c>
-      <c r="AE55" s="6"/>
-      <c r="AL55" t="s">
+      <c r="N55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R55" t="s">
+        <v>337</v>
+      </c>
+      <c r="S55" t="s">
+        <v>444</v>
+      </c>
+      <c r="V55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF55" s="6"/>
+      <c r="AM55" t="s">
         <v>53</v>
       </c>
+      <c r="AP55" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU55" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>315</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="56" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>263</v>
       </c>
@@ -5465,7 +7856,7 @@
       <c r="J56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="8" t="s">
         <v>64</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -5474,12 +7865,81 @@
       <c r="M56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE56" s="6"/>
+      <c r="N56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="X56" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF56" s="6"/>
       <c r="AL56" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM56" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AP56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ56" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS56" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU56" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU56" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>266</v>
       </c>
@@ -5510,7 +7970,7 @@
       <c r="J57" t="s">
         <v>47</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L57" t="s">
@@ -5519,12 +7979,81 @@
       <c r="M57" t="s">
         <v>75</v>
       </c>
-      <c r="AE57" s="6"/>
+      <c r="N57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" t="s">
+        <v>321</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R57" t="s">
+        <v>337</v>
+      </c>
+      <c r="S57" t="s">
+        <v>451</v>
+      </c>
+      <c r="V57" t="s">
+        <v>452</v>
+      </c>
+      <c r="W57" t="s">
+        <v>453</v>
+      </c>
+      <c r="X57" s="8"/>
+      <c r="AD57" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF57" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AL57" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM57" t="s">
         <v>53</v>
       </c>
+      <c r="AP57" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU57" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>470</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="58" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>269</v>
       </c>
@@ -5555,7 +8084,7 @@
       <c r="J58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -5564,12 +8093,18 @@
       <c r="M58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE58" s="6"/>
-      <c r="AL58" s="2" t="s">
+      <c r="N58" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="AF58" s="6"/>
+      <c r="AM58" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -5600,7 +8135,7 @@
       <c r="J59" t="s">
         <v>47</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L59" t="s">
@@ -5609,15 +8144,72 @@
       <c r="M59" t="s">
         <v>51</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AE59" s="6"/>
-      <c r="AL59" t="s">
+      <c r="O59" t="s">
+        <v>321</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="R59" t="s">
+        <v>337</v>
+      </c>
+      <c r="S59" t="s">
+        <v>456</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF59" s="6"/>
+      <c r="AM59" t="s">
         <v>53</v>
       </c>
+      <c r="AP59" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU59" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="60" spans="1:56" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>274</v>
       </c>
@@ -5648,7 +8240,7 @@
       <c r="J60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="8" t="s">
         <v>173</v>
       </c>
       <c r="L60" s="2" t="s">
@@ -5657,19 +8249,48 @@
       <c r="M60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AE60" s="6"/>
-      <c r="AL60" s="2" t="s">
+      <c r="N60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X60" s="8"/>
+      <c r="AF60" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM60" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="AP60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS60" s="2" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI60" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="corticated_foliose"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:CH60" xr:uid="{D46C0484-40E8-9945-B400-42E9F5BC19FE}"/>
+  <conditionalFormatting sqref="P2:P60">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$AS:$AS="division"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>